--- a/figures/source_data/source_Fig.5c.xlsx
+++ b/figures/source_data/source_Fig.5c.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,20 +380,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>strain_condition</t>
+          <t>species</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>mean_mic</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>mean_mic</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>se_mic</t>
         </is>
@@ -406,7 +401,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -420,18 +415,13 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F2">
+        <v>64</v>
+      </c>
       <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
     </row>
@@ -442,7 +432,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -456,18 +446,13 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F3">
+        <v>64</v>
+      </c>
       <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3">
         <v>0</v>
       </c>
     </row>
@@ -478,7 +463,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -492,18 +477,13 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
       <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4">
         <v>0</v>
       </c>
     </row>
@@ -514,7 +494,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -528,18 +508,13 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
       <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
         <v>0</v>
       </c>
     </row>
@@ -550,7 +525,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -565,19 +540,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
       <c r="G6">
-        <v>3.5</v>
-      </c>
-      <c r="H6">
-        <v>0.2886751345948129</v>
+        <v>2.309401076758503</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +557,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -602,19 +572,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
       <c r="G7">
-        <v>3.5</v>
-      </c>
-      <c r="H7">
-        <v>0.2886751345948129</v>
+        <v>2.309401076758503</v>
       </c>
     </row>
     <row r="8">
@@ -624,7 +589,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -639,19 +604,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
       <c r="G8">
-        <v>3.5</v>
-      </c>
-      <c r="H8">
-        <v>0.2886751345948129</v>
+        <v>2.309401076758503</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +621,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -676,19 +636,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F9">
+        <v>12</v>
+      </c>
       <c r="G9">
-        <v>3.5</v>
-      </c>
-      <c r="H9">
-        <v>0.2886751345948129</v>
+        <v>2.309401076758503</v>
       </c>
     </row>
     <row r="10">
@@ -698,7 +653,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -712,19 +667,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F10">
+        <v>48</v>
+      </c>
       <c r="G10">
-        <v>5.5</v>
-      </c>
-      <c r="H10">
-        <v>0.2886751345948129</v>
+        <v>9.237604307034012</v>
       </c>
     </row>
     <row r="11">
@@ -734,7 +684,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -748,19 +698,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F11">
+        <v>48</v>
+      </c>
       <c r="G11">
-        <v>5.5</v>
-      </c>
-      <c r="H11">
-        <v>0.2886751345948129</v>
+        <v>9.237604307034012</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +715,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -784,19 +729,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F12">
+        <v>48</v>
+      </c>
       <c r="G12">
-        <v>5.5</v>
-      </c>
-      <c r="H12">
-        <v>0.2886751345948129</v>
+        <v>9.237604307034012</v>
       </c>
     </row>
     <row r="13">
@@ -806,7 +746,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -820,19 +760,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4_R1 + wt ~ italic('oqxR')</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>K. pneumoniae</t>
         </is>
       </c>
+      <c r="F13">
+        <v>48</v>
+      </c>
       <c r="G13">
-        <v>5.5</v>
-      </c>
-      <c r="H13">
-        <v>0.2886751345948129</v>
+        <v>9.237604307034012</v>
       </c>
     </row>
     <row r="14">
@@ -842,7 +777,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -856,19 +791,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F14">
+        <v>28</v>
+      </c>
       <c r="G14">
-        <v>4.75</v>
-      </c>
-      <c r="H14">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -878,7 +808,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -892,19 +822,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F15">
+        <v>28</v>
+      </c>
       <c r="G15">
-        <v>4.75</v>
-      </c>
-      <c r="H15">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -914,33 +839,28 @@
         </is>
       </c>
       <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>no plasmid</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16">
         <v>4</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>no plasmid</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>E. coli</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>4.75</v>
-      </c>
-      <c r="H16">
-        <v>0.25</v>
       </c>
     </row>
     <row r="17">
@@ -950,7 +870,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -964,19 +884,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
       <c r="G17">
-        <v>4.75</v>
-      </c>
-      <c r="H17">
-        <v>0.25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -986,7 +901,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1001,19 +916,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F18">
+        <v>4.5</v>
+      </c>
       <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>0.408248290463863</v>
+        <v>1.258305739211792</v>
       </c>
     </row>
     <row r="19">
@@ -1023,7 +933,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1038,19 +948,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F19">
+        <v>4.5</v>
+      </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>0.408248290463863</v>
+        <v>1.258305739211792</v>
       </c>
     </row>
     <row r="20">
@@ -1060,7 +965,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1075,19 +980,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F20">
+        <v>4.5</v>
+      </c>
       <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>0.408248290463863</v>
+        <v>1.258305739211792</v>
       </c>
     </row>
     <row r="21">
@@ -1097,7 +997,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1112,19 +1012,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F21">
+        <v>4.5</v>
+      </c>
       <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>0.408248290463863</v>
+        <v>1.258305739211792</v>
       </c>
     </row>
     <row r="22">
@@ -1134,7 +1029,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1148,19 +1043,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F22">
+        <v>24</v>
+      </c>
       <c r="G22">
-        <v>4.5</v>
-      </c>
-      <c r="H22">
-        <v>0.2886751345948129</v>
+        <v>4.618802153517006</v>
       </c>
     </row>
     <row r="23">
@@ -1170,7 +1060,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1184,19 +1074,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F23">
+        <v>24</v>
+      </c>
       <c r="G23">
-        <v>4.5</v>
-      </c>
-      <c r="H23">
-        <v>0.2886751345948129</v>
+        <v>4.618802153517006</v>
       </c>
     </row>
     <row r="24">
@@ -1206,7 +1091,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1220,19 +1105,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
       <c r="G24">
-        <v>4.5</v>
-      </c>
-      <c r="H24">
-        <v>0.2886751345948129</v>
+        <v>4.618802153517006</v>
       </c>
     </row>
     <row r="25">
@@ -1242,7 +1122,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1256,19 +1136,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1_R4 + wt ~ italic('emrR')</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>E. coli</t>
         </is>
       </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
       <c r="G25">
-        <v>4.5</v>
-      </c>
-      <c r="H25">
-        <v>0.2886751345948129</v>
+        <v>4.618802153517006</v>
       </c>
     </row>
   </sheetData>
